--- a/data/trans_dic/P69$dolorMuscular-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5568522448136839</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4677255701168747</v>
+        <v>0.4677255701168746</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3377818623672351</v>
+        <v>0.3242314890991305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1218670587509274</v>
+        <v>0.1349799561269859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2293697295848098</v>
+        <v>0.2375031261719552</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3909272049798825</v>
+        <v>0.3981251354462872</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09432886767776176</v>
+        <v>0.09681805841175499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4031080534042563</v>
+        <v>0.4024421155697739</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1263637602832739</v>
+        <v>0.121490396150611</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3950635927322411</v>
+        <v>0.4011934852713936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1988232948674803</v>
+        <v>0.2007555225052726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3816299382149079</v>
+        <v>0.364132190908648</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1969639042241557</v>
+        <v>0.2081904976206922</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6307312596903262</v>
+        <v>0.6172977714721186</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7501211107597696</v>
+        <v>0.7608097177605725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7210062256527944</v>
+        <v>0.7283385749075486</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8162524775684689</v>
+        <v>0.8156767736964432</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6891516386669181</v>
+        <v>0.6910121905982304</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9112853706656505</v>
+        <v>0.9144833321940991</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7735338266330174</v>
+        <v>0.7877179661651059</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6391507243335842</v>
+        <v>0.6374114715018094</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6472300781288245</v>
+        <v>0.6150347102671402</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7350584664643491</v>
+        <v>0.7146004716892129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.735536224669981</v>
+        <v>0.7569173905299277</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5913248960930982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6348425423913687</v>
+        <v>0.6348425423913685</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4220047959111864</v>
@@ -833,7 +833,7 @@
         <v>0.6060964823866336</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5936459955832271</v>
+        <v>0.5936459955832272</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.396826278818319</v>
+        <v>0.3979476424979403</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4471630919154004</v>
+        <v>0.4481813229992447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.471404893922666</v>
+        <v>0.4652119380701762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4825223984342603</v>
+        <v>0.4729032500612289</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3105507116572475</v>
+        <v>0.3194079026776719</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3596109817840737</v>
+        <v>0.3550145649134333</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4933672100725046</v>
+        <v>0.4859375616736563</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3949194256847023</v>
+        <v>0.3844291915155396</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3943561154294429</v>
+        <v>0.3887980597425308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4405814041527855</v>
+        <v>0.4435791478237773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5166217428788483</v>
+        <v>0.5206681637089279</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4834276750467464</v>
+        <v>0.4746576434798717</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5691744669914917</v>
+        <v>0.5703851992563119</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.663905533058718</v>
+        <v>0.6617364980929495</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6931836764590469</v>
+        <v>0.6968040715930254</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7676025590002368</v>
+        <v>0.7649897619295001</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5292442044912369</v>
+        <v>0.5490746022898496</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6204676796250574</v>
+        <v>0.6118263464521512</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7552572790774752</v>
+        <v>0.7581778944612477</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6699997220915869</v>
+        <v>0.6765705396459293</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5289825729443576</v>
+        <v>0.5295972847231829</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6146484962128657</v>
+        <v>0.6123836098994367</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6878179918602992</v>
+        <v>0.687307962083567</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7006276397906732</v>
+        <v>0.6987829334893211</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.491064632275926</v>
+        <v>0.4876076362086645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.473491562529022</v>
+        <v>0.481594012385698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5531449242534262</v>
+        <v>0.5377975177366916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5225326714570501</v>
+        <v>0.5103984634984641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4528249690479516</v>
+        <v>0.4488597083718971</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4393414975106862</v>
+        <v>0.4413990737455433</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.527693097296876</v>
+        <v>0.5275180660880678</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4654185320491501</v>
+        <v>0.4659463746419162</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5189150975078215</v>
+        <v>0.5049518890473615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4934726605300647</v>
+        <v>0.4926169952087753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5760389149767726</v>
+        <v>0.5653111067334737</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5271424739837637</v>
+        <v>0.5181866168823758</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6729654904072396</v>
+        <v>0.6649045947739275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6717027796245592</v>
+        <v>0.6920188757836422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7311509972957065</v>
+        <v>0.7300756432817121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7225466143439895</v>
+        <v>0.7143755957721926</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6855110278049303</v>
+        <v>0.6840163128176555</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6644889419039612</v>
+        <v>0.6675962129270363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7495592237932267</v>
+        <v>0.7572465633580693</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6446528558096961</v>
+        <v>0.6520152628001376</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6565009121161089</v>
+        <v>0.648229183579712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6468615427136055</v>
+        <v>0.6527620681948723</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7096508346481503</v>
+        <v>0.71883552532666</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6615520367054538</v>
+        <v>0.6599013896400577</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5505477871419868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.648277954113317</v>
+        <v>0.6482779541133171</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.644462942972862</v>
@@ -1093,7 +1093,7 @@
         <v>0.6406233822977138</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6600060578750629</v>
+        <v>0.6600060578750631</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5196791939493011</v>
@@ -1105,7 +1105,7 @@
         <v>0.5848033084734864</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6542840762378028</v>
+        <v>0.6542840762378027</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.374120462119854</v>
+        <v>0.3745065863027017</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3895140420862946</v>
+        <v>0.3924016852521233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4442977180723937</v>
+        <v>0.4346062379356966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5565685807281876</v>
+        <v>0.5504050202706626</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4699115278280582</v>
+        <v>0.4815559930751487</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2906871032231749</v>
+        <v>0.2985780378019185</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5049826865747482</v>
+        <v>0.5064178632232652</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5930676383278896</v>
+        <v>0.5884048517892693</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4330668184064512</v>
+        <v>0.4281714581831671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3961618248135542</v>
+        <v>0.4042336726171217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4975600817665638</v>
+        <v>0.4963318661108086</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5982549996805604</v>
+        <v>0.5974884865360339</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5780846808179672</v>
+        <v>0.5752941201461228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6141913120507231</v>
+        <v>0.6103676558083717</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6565599993803558</v>
+        <v>0.6582422666373777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7336430934915337</v>
+        <v>0.7356792866050919</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7911527071568905</v>
+        <v>0.7936801125086801</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6349893264088156</v>
+        <v>0.6121065893539249</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.766760525646891</v>
+        <v>0.7618844657912397</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7247934940200752</v>
+        <v>0.730087721157432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5969762460149778</v>
+        <v>0.5964361905395175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5806716737732487</v>
+        <v>0.5843711219771115</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.669377672306987</v>
+        <v>0.6752235494339082</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.711159130085193</v>
+        <v>0.7184933221809132</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4759259792873287</v>
+        <v>0.4642095307901451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4281409581824952</v>
+        <v>0.4086634476586918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4747860470094389</v>
+        <v>0.4751251243740526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5053935994479527</v>
+        <v>0.5239227616321354</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07079185763740181</v>
+        <v>0.0699321071928458</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4283381445167351</v>
+        <v>0.4546419209819785</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6792149691581878</v>
+        <v>0.6588036103001612</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5843800547301441</v>
+        <v>0.5847904287919944</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4144240954637369</v>
+        <v>0.4168658996891572</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4731390085413422</v>
+        <v>0.4914059776754099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6050243006096335</v>
+        <v>0.6092376814843761</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5869755969933325</v>
+        <v>0.5822825322209501</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7522671008574514</v>
+        <v>0.7501701817602431</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7002103655924052</v>
+        <v>0.7373153827206661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7809035351229678</v>
+        <v>0.7752861240119412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7369088180579504</v>
+        <v>0.7340190288091361</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5529102707721701</v>
+        <v>0.5649924608696387</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8301905741189365</v>
+        <v>0.8425160922861644</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9627485305236226</v>
+        <v>0.9645073014925336</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.765337409137223</v>
+        <v>0.7665378933481101</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6551245872714567</v>
+        <v>0.6698060230095573</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7215005025909331</v>
+        <v>0.7244070600600353</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8274725402338982</v>
+        <v>0.8272478480153241</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7301759710297664</v>
+        <v>0.7287336379872125</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.6268423062071153</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6215689123963156</v>
+        <v>0.6215689123963158</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5443497166541906</v>
+        <v>0.5416053855701742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5779583043096858</v>
+        <v>0.5801276829931096</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5626876201391734</v>
+        <v>0.5642689367697982</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4949134687714661</v>
+        <v>0.4929011479146192</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5816933674115641</v>
+        <v>0.5860636397067324</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5843152915122648</v>
+        <v>0.5835275180138557</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6541390439472835</v>
+        <v>0.6495173072441645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6898521422294938</v>
+        <v>0.6891720731897039</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6515439059377878</v>
+        <v>0.6543531439003913</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.578857737910898</v>
+        <v>0.5747550059606914</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6671634253962926</v>
+        <v>0.6689268647090703</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6543620319724296</v>
+        <v>0.6593922509756256</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15596</v>
+        <v>14970</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1259</v>
+        <v>1394</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3934</v>
+        <v>4073</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7763</v>
+        <v>7906</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>949</v>
+        <v>974</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4693</v>
+        <v>4686</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2009</v>
+        <v>1932</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26086</v>
+        <v>26491</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4053</v>
+        <v>4092</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10989</v>
+        <v>10485</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4947</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29122</v>
+        <v>28502</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7747</v>
+        <v>7857</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12366</v>
+        <v>12492</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>9218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16210</v>
+        <v>16199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6930</v>
+        <v>6949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10610</v>
+        <v>10647</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12298</v>
+        <v>12524</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42204</v>
+        <v>42089</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13192</v>
+        <v>12536</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21165</v>
+        <v>20576</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18474</v>
+        <v>19011</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>56465</v>
+        <v>56624</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38585</v>
+        <v>38673</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38453</v>
+        <v>37948</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33580</v>
+        <v>32911</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24619</v>
+        <v>25321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23759</v>
+        <v>23456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22838</v>
+        <v>22495</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20343</v>
+        <v>19803</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>87376</v>
+        <v>86144</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>67126</v>
+        <v>67583</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>66057</v>
+        <v>66574</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58546</v>
+        <v>57483</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>80988</v>
+        <v>81161</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57287</v>
+        <v>57100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56544</v>
+        <v>56840</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53420</v>
+        <v>53238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41956</v>
+        <v>43528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40994</v>
+        <v>40423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34962</v>
+        <v>35097</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34513</v>
+        <v>34852</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>117205</v>
+        <v>117341</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>93647</v>
+        <v>93302</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>87946</v>
+        <v>87881</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84850</v>
+        <v>84626</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>61888</v>
+        <v>61452</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45907</v>
+        <v>46693</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>62573</v>
+        <v>60837</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>57467</v>
+        <v>56132</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31717</v>
+        <v>31439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31910</v>
+        <v>32059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37708</v>
+        <v>37695</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40324</v>
+        <v>40370</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>101744</v>
+        <v>99006</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>83687</v>
+        <v>83541</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>106326</v>
+        <v>104346</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103646</v>
+        <v>101885</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84812</v>
+        <v>83797</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65125</v>
+        <v>67095</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>82710</v>
+        <v>82588</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79464</v>
+        <v>78565</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48015</v>
+        <v>47910</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48262</v>
+        <v>48488</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53562</v>
+        <v>54111</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55853</v>
+        <v>56491</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>128720</v>
+        <v>127098</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>109699</v>
+        <v>110700</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>130988</v>
+        <v>132683</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130073</v>
+        <v>129748</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41569</v>
+        <v>41611</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35076</v>
+        <v>35336</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40621</v>
+        <v>39735</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>67083</v>
+        <v>66340</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17404</v>
+        <v>17835</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11721</v>
+        <v>12039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28333</v>
+        <v>28414</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75032</v>
+        <v>74442</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>64158</v>
+        <v>63432</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>51648</v>
+        <v>52701</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>73408</v>
+        <v>73226</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>147796</v>
+        <v>147607</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64231</v>
+        <v>63921</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55309</v>
+        <v>54964</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>60028</v>
+        <v>60182</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>88426</v>
+        <v>88671</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29302</v>
+        <v>29396</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25603</v>
+        <v>24681</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43021</v>
+        <v>42747</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>91697</v>
+        <v>92367</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88440</v>
+        <v>88360</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>75703</v>
+        <v>76186</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>98757</v>
+        <v>99619</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175688</v>
+        <v>177500</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21836</v>
+        <v>21299</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17911</v>
+        <v>17096</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21293</v>
+        <v>21308</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36400</v>
+        <v>37734</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10529</v>
+        <v>11176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20919</v>
+        <v>20290</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>36096</v>
+        <v>36121</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>24779</v>
+        <v>24925</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31424</v>
+        <v>32637</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45768</v>
+        <v>46086</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>78532</v>
+        <v>77904</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34516</v>
+        <v>34419</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29293</v>
+        <v>30845</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35022</v>
+        <v>34770</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>53074</v>
+        <v>52866</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7690</v>
+        <v>7858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20408</v>
+        <v>20711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29652</v>
+        <v>29706</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47273</v>
+        <v>47348</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>39171</v>
+        <v>40048</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>47919</v>
+        <v>48112</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>62595</v>
+        <v>62578</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>97691</v>
+        <v>97498</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189500</v>
+        <v>188545</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>220400</v>
+        <v>221227</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>192628</v>
+        <v>193169</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>266816</v>
+        <v>265731</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>328319</v>
+        <v>330785</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>422855</v>
+        <v>422285</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>227720</v>
+        <v>226111</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>263070</v>
+        <v>262810</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>223046</v>
+        <v>224008</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>312071</v>
+        <v>309860</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>376560</v>
+        <v>377555</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>473546</v>
+        <v>477186</v>
       </c>
     </row>
     <row r="28">
